--- a/src/main/resources/excel/data_temp3.xlsx
+++ b/src/main/resources/excel/data_temp3.xlsx
@@ -1726,13 +1726,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1742,6 +1735,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,7 +1762,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,67 +1924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,97 +1942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,10 +2061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2073,16 +2073,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2094,10 +2094,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2118,88 +2118,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2606,11 +2606,11 @@
   <dimension ref="A1:AP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:42">
       <c r="A27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2">
         <v>1025</v>
@@ -17627,33 +17627,33 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI21:AK21 AI22:AK22 AI23:AK23 AI24:AK24 AI25:AK25 AI26:AK26 AI27:AK27 AI28:AJ28 AK28 AI29:AJ29 AK29 AI32:AJ32 AK32 AI33:AJ33 AK33 AI34:AJ34 AK34 AI35:AJ35 AK35 AI39:AJ39 AK39 AI40:AJ40 AK40 AI43:AJ43 AK43 AI44:AJ44 AK44 AI56:AJ56 AK56 AI64:AJ64 AK64 AI65:AJ65 AK65 AI68:AJ68 AK68 AI69:AJ69 AK69 AI76:AJ76 AK76 AI96:AJ96 AK96 AI97:AJ97 AK97 AI102:AJ102 AK102 AI103:AJ103 AK103 AI104:AJ104 AK104 AI105:AJ105 AK105 AI114:AJ114 AK114 AI115:AJ115 AK115 AI116:AJ116 AK116 AI117:AJ117 AK117 AI118:AJ118 AK118 AI131:AJ131 AK131 AI138:AJ138 AI139:AJ139 AK30:AK31 AK36:AK38 AK41:AK42 AK45:AK51 AK52:AK55 AK57:AK59 AK60:AK61 AK62:AK63 AK66:AK67 AK70:AK73 AK74:AK75 AK77:AK78 AK79:AK81 AK82:AK84 AK85:AK89 AK90:AK91 AK92:AK93 AK94:AK95 AK98:AK99 AK100:AK101 AK106:AK113 AK119:AK120 AK121:AK122 AK123:AK128 AK129:AK130 AK132:AK135 AI30:AJ31 AI60:AJ61 AI62:AJ63 AI66:AJ67 AI74:AJ75 AI90:AJ91 AI92:AJ93 AI94:AJ95 AI98:AJ99 AI100:AJ101 AI36:AJ38 AI57:AJ59 AI41:AJ42 AI77:AJ78 AI119:AJ120 AI121:AJ122 AI129:AJ130 AI45:AJ51 AI70:AJ73 AI79:AJ81 AI82:AJ84 AI85:AJ89 AI106:AJ113 AI123:AJ128 AI132:AJ137 AI3:AK20 AI52:AJ55">
+      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D35 P35 AC35 D39 P39 AC39 D40 P40 AC40 D43 P43 AC43 D44 P44 AC44 D52 P52 AC52 D56 P56 AC56 D64 P64 AC64 D65 P65 AC65 D68 P68 AC68 D69 P69 AC69 D76 P76 AC76 D96 P96 AC96 D97 P97 AC97 D102 P102 AC102 D103 P103 AC103 D104 P104 AC104 D105 P105 AC105 D114 P114 AC114 D115 P115 AC115 D116 P116 AC116 D117 P117 AC117 D118 P118 AC118 D131 P131 AC131 AC138 AC139 AC140 AC141 AC142 AC143 D144 AC144 AC145 AC146 AC147 AC148 D1:D20 D30:D31 D36:D38 D41:D42 D45:D51 D54:D55 D57:D59 D60:D61 D62:D63 D66:D67 D70:D73 D74:D75 D77:D78 D79:D81 D82:D84 D85:D89 D90:D91 D92:D93 D94:D95 D98:D99 D100:D101 D106:D113 D119:D120 D121:D122 D123:D128 D129:D130 D132:D137 D138:D143 D145:D1048576 E1:E2 P1:P20 P30:P31 P36:P38 P41:P42 P45:P51 P54:P55 P57:P59 P60:P61 P62:P63 P66:P67 P70:P73 P74:P75 P77:P78 P79:P81 P82:P84 P85:P89 P90:P91 P92:P93 P94:P95 P98:P99 P100:P101 P106:P113 P119:P120 P121:P122 P123:P128 P129:P130 P132:P135 AC1:AC7 AC9:AC20 AC30:AC31 AC36:AC38 AC41:AC42 AC45:AC51 AC54:AC55 AC57:AC59 AC60:AC61 AC62:AC63 AC66:AC67 AC70:AC73 AC74:AC75 AC77:AC78 AC79:AC81 AC82:AC84 AC85:AC89 AC90:AC91 AC92:AC93 AC94:AC95 AC98:AC99 AC100:AC101 AC106:AC113 AC119:AC120 AC121:AC122 AC123:AC128 AC129:AC130 AC132:AC137 AC149:AC1048576 AG1:AG2 L1:O2 Q1:AB2 AI1:AK2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21 M22 M23 M24 M25 M26 M27 M28 M29 M32 M33 M34 M35 M39 M40 M43 M44 M52 M56 M64 M65 M68 M69 M76 M96 M97 M102 M103 M104 M105 M114 M115 M116 M117 M118 M131 M138 M139 M140 M141 M142 M144 M145 M146 M147 M148 M3:M20 M30:M31 M36:M38 M41:M42 M45:M51 M54:M55 M57:M59 M60:M61 M62:M63 M66:M67 M70:M73 M74:M75 M77:M78 M79:M81 M82:M84 M85:M89 M90:M91 M92:M93 M94:M95 M98:M99 M100:M101 M106:M113 M119:M120 M121:M122 M123:M128 M129:M130 M132:M137">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1 AH21 AH22 AH23 AH24 AH25 AH26 AH27 AH28 AH29 AH32 AH33 AH34 AH35 AH39 AH40 AH43 AH44 AH56 AH59 AH64 AH65 AH68 AH69 AH76 AH96 AH97 AH98 AH99 AH102 AH103 AH104 AH105 AH114 AH115 AH116 AH117 AH118 AH131 AH138 AH139 AH140 AH141 AH142 AH143 AH144 AH145 AH146 AH147 AH148 AH3:AH20 AH30:AH31 AH36:AH38 AH41:AH42 AH45:AH51 AH52:AH55 AH57:AH58 AH60:AH61 AH62:AH63 AH66:AH67 AH70:AH73 AH74:AH75 AH77:AH78 AH79:AH81 AH82:AH84 AH85:AH89 AH90:AH91 AH92:AH93 AH94:AH95 AH100:AH101 AH106:AH113 AH119:AH120 AH121:AH122 AH123:AH128 AH129:AH130 AH132:AH137 AH149:AH1048576">
       <formula1>"逆命,逆命5,突破,未开命格"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R21 Q22:R22 Q23:R23 Q24:R24 Q25:R25 Q26:R26 Q27:R27 Q28:R28 Q29:R29 Q32:R32 Q33:R33 Q34:R34 Q35:R35 Q39:R39 Q40:R40 Q43:R43 Q44:R44 Q52:R52 Q56:R56 Q64:R64 Q65:R65 Q68:R68 Q69:R69 Q76:R76 Q96:R96 Q97:R97 Q102:R102 Q103:R103 Q104:R104 Q105:R105 Q114:R114 Q115:R115 Q116:R116 Q117:R117 Q118:R118 Q131:R131 Q138:R138 Q139:R139 Q140:R140 Q141:R141 Q142:R142 Q143:R143 Q144:R144 Q145:R145 Q146:R146 Q147:R147 Q148:R148 Q3:R20 Q30:R31 Q54:R55 Q60:R61 Q62:R63 Q66:R67 Q74:R75 Q90:R91 Q92:R93 Q94:R95 Q98:R99 Q100:R101 Q36:R38 Q57:R59 Q41:R42 Q77:R78 Q119:R120 Q121:R122 Q129:R130 Q45:R51 Q70:R73 Q79:R81 Q82:R84 Q85:R89 Q106:R113 Q123:R128 Q132:R137">
-      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D35 P35 AC35 D39 P39 AC39 D40 P40 AC40 D43 P43 AC43 D44 P44 AC44 D52 P52 AC52 D56 P56 AC56 D64 P64 AC64 D65 P65 AC65 D68 P68 AC68 D69 P69 AC69 D76 P76 AC76 D96 P96 AC96 D97 P97 AC97 D102 P102 AC102 D103 P103 AC103 D104 P104 AC104 D105 P105 AC105 D114 P114 AC114 D115 P115 AC115 D116 P116 AC116 D117 P117 AC117 D118 P118 AC118 D131 P131 AC131 AC138 AC139 AC140 AC141 AC142 AC143 D144 AC144 AC145 AC146 AC147 AC148 D1:D20 D30:D31 D36:D38 D41:D42 D45:D51 D54:D55 D57:D59 D60:D61 D62:D63 D66:D67 D70:D73 D74:D75 D77:D78 D79:D81 D82:D84 D85:D89 D90:D91 D92:D93 D94:D95 D98:D99 D100:D101 D106:D113 D119:D120 D121:D122 D123:D128 D129:D130 D132:D137 D138:D143 D145:D1048576 E1:E2 P1:P20 P30:P31 P36:P38 P41:P42 P45:P51 P54:P55 P57:P59 P60:P61 P62:P63 P66:P67 P70:P73 P74:P75 P77:P78 P79:P81 P82:P84 P85:P89 P90:P91 P92:P93 P94:P95 P98:P99 P100:P101 P106:P113 P119:P120 P121:P122 P123:P128 P129:P130 P132:P135 AC1:AC7 AC9:AC20 AC30:AC31 AC36:AC38 AC41:AC42 AC45:AC51 AC54:AC55 AC57:AC59 AC60:AC61 AC62:AC63 AC66:AC67 AC70:AC73 AC74:AC75 AC77:AC78 AC79:AC81 AC82:AC84 AC85:AC89 AC90:AC91 AC92:AC93 AC94:AC95 AC98:AC99 AC100:AC101 AC106:AC113 AC119:AC120 AC121:AC122 AC123:AC128 AC129:AC130 AC132:AC137 AC149:AC1048576 AG1:AG2 L1:O2 Q1:AB2 AI1:AK2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N21 N22 N23 N24 N25 N26 N27 N28 N29 N32 N33 N34 N35 N39 N40 N43 N44 N52 N56 N64 N65 N68 N69 N76 N96 N97 N102 N103 N104 N105 N114 N115 N116 N117 N118 N131 N137 N138 N139 O139 N140 N141 N143 N144 N145 N146 N147 N148 N3:N20 N30:N31 N36:N38 N41:N42 N45:N51 N54:N55 N57:N59 N60:N61 N62:N63 N66:N67 N70:N73 N74:N75 N77:N78 N79:N81 N82:N84 N85:N89 N90:N91 N92:N93 N94:N95 N98:N99 N100:N101 N106:N113 N119:N120 N121:N122 N123:N128 N129:N130 N132:N135">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21 M22 M23 M24 M25 M26 M27 M28 M29 M32 M33 M34 M35 M39 M40 M43 M44 M52 M56 M64 M65 M68 M69 M76 M96 M97 M102 M103 M104 M105 M114 M115 M116 M117 M118 M131 M138 M139 M140 M141 M142 M144 M145 M146 M147 M148 M3:M20 M30:M31 M36:M38 M41:M42 M45:M51 M54:M55 M57:M59 M60:M61 M62:M63 M66:M67 M70:M73 M74:M75 M77:M78 M79:M81 M82:M84 M85:M89 M90:M91 M92:M93 M94:M95 M98:M99 M100:M101 M106:M113 M119:M120 M121:M122 M123:M128 M129:M130 M132:M137">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21 AG21 A22 AG22 A23 AG23 A24 AG24 A25 AG25 A26 AG26 A27 AG27 A28 AG28 A29 AG29 A32 AG32 A33 AG33 A34 AG34 A35 AG35 A39 AG39 A40 AG40 A43 AG43 A44 AG44 A56 AG56 A60 A61 A64 AG64 A65 AG65 A68 AG68 A69 AG69 A70 A71 A72 A73 A74 A75 A76 AG76 A85 A96 AG96 A97 AG97 AG98 AG99 A102 AG102 A103 AG103 A104 AG104 A105 AG105 A114 AG114 A115 AG115 A116 AG116 A117 AG117 A118 AG118 A127 A128 A131 AG131 A138 AG138 A139 AG139 A140 AG140 A141 AG141 A142 AG142 A143 AG143 AG144 AG145 A146 AG146 A147 AG147 AG148 A3:A20 A30:A31 A36:A38 A41:A42 A45:A51 A52:A55 A57:A59 A62:A63 A66:A67 A77:A78 A79:A81 A82:A84 A86:A89 A90:A91 A92:A93 A94:A95 A98:A99 A100:A101 A106:A113 A119:A120 A121:A122 A123:A126 A129:A130 A132:A137 A144:A145 A148:A1048576 AG3:AG20 AG30:AG31 AG36:AG38 AG41:AG42 AG45:AG51 AG52:AG55 AG57:AG59 AG60:AG61 AG62:AG63 AG66:AG67 AG70:AG73 AG74:AG75 AG77:AG78 AG79:AG81 AG82:AG84 AG85:AG89 AG90:AG91 AG92:AG93 AG94:AG95 AG100:AG101 AG106:AG113 AG119:AG120 AG121:AG122 AG123:AG128 AG129:AG130 AG132:AG137">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI21:AK21 AI22:AK22 AI23:AK23 AI24:AK24 AI25:AK25 AI26:AK26 AI27:AK27 AI28:AJ28 AK28 AI29:AJ29 AK29 AI32:AJ32 AK32 AI33:AJ33 AK33 AI34:AJ34 AK34 AI35:AJ35 AK35 AI39:AJ39 AK39 AI40:AJ40 AK40 AI43:AJ43 AK43 AI44:AJ44 AK44 AI56:AJ56 AK56 AI64:AJ64 AK64 AI65:AJ65 AK65 AI68:AJ68 AK68 AI69:AJ69 AK69 AI76:AJ76 AK76 AI96:AJ96 AK96 AI97:AJ97 AK97 AI102:AJ102 AK102 AI103:AJ103 AK103 AI104:AJ104 AK104 AI105:AJ105 AK105 AI114:AJ114 AK114 AI115:AJ115 AK115 AI116:AJ116 AK116 AI117:AJ117 AK117 AI118:AJ118 AK118 AI131:AJ131 AK131 AI138:AJ138 AI139:AJ139 AK30:AK31 AK36:AK38 AK41:AK42 AK45:AK51 AK52:AK55 AK57:AK59 AK60:AK61 AK62:AK63 AK66:AK67 AK70:AK73 AK74:AK75 AK77:AK78 AK79:AK81 AK82:AK84 AK85:AK89 AK90:AK91 AK92:AK93 AK94:AK95 AK98:AK99 AK100:AK101 AK106:AK113 AK119:AK120 AK121:AK122 AK123:AK128 AK129:AK130 AK132:AK135 AI30:AJ31 AI60:AJ61 AI62:AJ63 AI66:AJ67 AI74:AJ75 AI90:AJ91 AI92:AJ93 AI94:AJ95 AI98:AJ99 AI100:AJ101 AI36:AJ38 AI57:AJ59 AI41:AJ42 AI77:AJ78 AI119:AJ120 AI121:AJ122 AI129:AJ130 AI45:AJ51 AI70:AJ73 AI79:AJ81 AI82:AJ84 AI85:AJ89 AI106:AJ113 AI123:AJ128 AI132:AJ137 AI3:AK20 AI52:AJ55">
-      <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E22 E23 E24 E25 E26 E27 E28 E29 E32 E33 E34 E35 E39 E40 E43 E44 E52 E56 E64 E65 E68 E69 E76 E96 E97 E102 E103 E104 E105 E114 E115 E116 E117 E118 E131 E140 E141 E142 E144 E146 E147 E148 E3:E20 E30:E31 E36:E38 E41:E42 E45:E51 E54:E55 E57:E59 E60:E61 E62:E63 E66:E67 E70:E73 E74:E75 E77:E78 E79:E81 E82:E84 E85:E89 E90:E91 E92:E93 E94:E95 E98:E99 E100:E101 E106:E113 E119:E120 E121:E122 E123:E128 E129:E130 E132:E137">
       <formula1>"魏,蜀,吴,群"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21 L22 L23 L24 L25 L26 L27 L28 L29 L32 L33 L34 L35 L39 L40 L43 L44 L52 L56 L64 L65 L68 L69 L76 L96 L97 L102 L103 L104 L105 L114 L115 L116 L117 L118 L131 L137 L141 L142 L144 L145 L146 L147 L148 L3:L20 L30:L31 L36:L38 L41:L42 L45:L51 L54:L55 L57:L59 L60:L61 L62:L63 L66:L67 L70:L73 L74:L75 L77:L78 L79:L81 L82:L84 L85:L89 L90:L91 L92:L93 L94:L95 L98:L99 L100:L101 L106:L113 L119:L120 L121:L122 L123:L128 L129:L130 L132:L135">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N21 N22 N23 N24 N25 N26 N27 N28 N29 N32 N33 N34 N35 N39 N40 N43 N44 N52 N56 N64 N65 N68 N69 N76 N96 N97 N102 N103 N104 N105 N114 N115 N116 N117 N118 N131 N137 N138 N139 O139 N140 N141 N143 N144 N145 N146 N147 N148 N3:N20 N30:N31 N36:N38 N41:N42 N45:N51 N54:N55 N57:N59 N60:N61 N62:N63 N66:N67 N70:N73 N74:N75 N77:N78 N79:N81 N82:N84 N85:N89 N90:N91 N92:N93 N94:N95 N98:N99 N100:N101 N106:N113 N119:N120 N121:N122 N123:N128 N129:N130 N132:N135">
+      <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21 O22 O23 O24 O25 O26 O27 O28 O29 O32 O33 O34 O35 O39 O40 O43 O44 O52 O56 O64 O65 O68 O69 O76 O96 O97 O102 O103 O104 O105 O114 O115 O116 O117 O118 O131 O137 O144 O147 O148 O3:O20 O30:O31 O36:O38 O41:O42 O45:O51 O54:O55 O57:O59 O60:O61 O62:O63 O66:O67 O70:O73 O74:O75 O77:O78 O79:O81 O82:O84 O85:O89 O90:O91 O92:O93 O94:O95 O98:O99 O100:O101 O106:O113 O119:O120 O121:O122 O123:O128 O129:O130 O132:O135">
       <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21 L22 L23 L24 L25 L26 L27 L28 L29 L32 L33 L34 L35 L39 L40 L43 L44 L52 L56 L64 L65 L68 L69 L76 L96 L97 L102 L103 L104 L105 L114 L115 L116 L117 L118 L131 L137 L141 L142 L144 L145 L146 L147 L148 L3:L20 L30:L31 L36:L38 L41:L42 L45:L51 L54:L55 L57:L59 L60:L61 L62:L63 L66:L67 L70:L73 L74:L75 L77:L78 L79:L81 L82:L84 L85:L89 L90:L91 L92:L93 L94:L95 L98:L99 L100:L101 L106:L113 L119:L120 L121:L122 L123:L128 L129:L130 L132:L135">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R21 Q22:R22 Q23:R23 Q24:R24 Q25:R25 Q26:R26 Q27:R27 Q28:R28 Q29:R29 Q32:R32 Q33:R33 Q34:R34 Q35:R35 Q39:R39 Q40:R40 Q43:R43 Q44:R44 Q52:R52 Q56:R56 Q64:R64 Q65:R65 Q68:R68 Q69:R69 Q76:R76 Q96:R96 Q97:R97 Q102:R102 Q103:R103 Q104:R104 Q105:R105 Q114:R114 Q115:R115 Q116:R116 Q117:R117 Q118:R118 Q131:R131 Q138:R138 Q139:R139 Q140:R140 Q141:R141 Q142:R142 Q143:R143 Q144:R144 Q145:R145 Q146:R146 Q147:R147 Q148:R148 Q3:R20 Q30:R31 Q54:R55 Q60:R61 Q62:R63 Q66:R67 Q74:R75 Q90:R91 Q92:R93 Q94:R95 Q98:R99 Q100:R101 Q36:R38 Q57:R59 Q41:R42 Q77:R78 Q119:R120 Q121:R122 Q129:R130 Q45:R51 Q70:R73 Q79:R81 Q82:R84 Q85:R89 Q106:R113 Q123:R128 Q132:R137">
+      <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S21:AB21 S22:AB22 S23:T23 U23:V23 W23:AB23 S24:T24 U24:V24 W24:X24 Y24:Z24 AA24:AB24 S25:T25 U25:V25 W25:X25 Y25:Z25 AA25:AB25 S26:T26 U26:V26 W26:X26 Y26:Z26 AA26:AB26 S27:AB27 S28:AB28 S29:AB29 S32:AB32 S33:AB33 S34:AB34 S35:AB35 S39:AB39 S40:AB40 S43:AB43 S44:AB44 S56:AB56 S64:AB64 S65:AB65 S68:AB68 S69:AB69 S76:AB76 S96:AB96 S97:AB97 S102:AB102 S103:AB103 S104:AB104 S105:AB105 S114:AB114 S115:AB115 S116:AB116 S117:AB117 S118:AB118 S131:AB131 S138:T138 U138:V138 W138:X138 Y138:Z138 AA138:AB138 S139:T139 U139:V139 W139:X139 Y139:Z139 AA139:AB139 S140:T140 U140:V140 W140:X140 Y140:Z140 AA140:AB140 S141:T141 U141:V141 W141:X141 Y141:Z141 AA141:AB141 S142:T142 U142:V142 W142:X142 Y142:Z142 AA142 AB142 S143:T143 U143:V143 W143 X143 Y143:Z143 AA143:AB143 S144:T144 U144:V144 W144:X144 Y144:Z144 AA144:AB144 S145:T145 U145:V145 W145 X145 Y145:Z145 AA145:AB145 S146:T146 U146:V146 W146 X146 Y146:Z146 AA146:AB146 S148:T148 U148:V148 W148:X148 Y148:Z148 AA148:AB148 S3:AB20 S30:AB31 S54:AB55 S60:AB61 S62:AB63 S66:AB67 S74:AB75 S90:AB91 S92:AB93 S94:AB95 S98:AB99 S100:AB101 S36:AB38 S57:AB59 S41:AB42 S77:AB78 S119:AB120 S121:AB122 S129:AB130 S45:AB51 S70:AB73 S79:AB81 S82:AB84 S85:AB89 S106:AB113 S123:AB128 S132:AB137">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>

--- a/src/main/resources/excel/data_temp3.xlsx
+++ b/src/main/resources/excel/data_temp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16830" windowHeight="6615"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1976,6 +1976,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1988,7 +1994,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +2054,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,19 +2102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,13 +2120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,48 +2138,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2126,37 +2150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,10 +2290,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2302,16 +2302,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2323,10 +2323,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2347,28 +2347,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2377,58 +2377,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2890,7 +2890,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI33" sqref="AI33"/>
+      <selection pane="bottomRight" activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6322,13 +6322,13 @@
         <v>126</v>
       </c>
       <c r="AD32" s="4">
-        <v>988</v>
+        <v>1276</v>
       </c>
       <c r="AE32" s="4">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="AF32" s="4">
-        <v>1947</v>
+        <v>2159</v>
       </c>
       <c r="AG32" s="4" t="b">
         <v>1</v>
@@ -18679,32 +18679,32 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D16 P16 AC16 D17 P17 AC17 D18 P18 AC18 D19 P19 AC19 D20 P20 AC20 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D30 P30 AC30 D31 P31 AC31 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D37 P37 AC37 D38 P38 AC38 D39 P39 AC39 D40 P40 AC40 D44 P44 AC44 D45 P45 AC45 D48 P48 AC48 D49 P49 AC49 D57 P57 AC57 D61 P61 AC61 AC65 AC66 D69 P69 AC69 D70 P70 AC70 D73 P73 AC73 D74 P74 AC74 D81 P81 AC81 D101 P101 AC101 D102 P102 AC102 D107 P107 AC107 D108 P108 AC108 D109 P109 AC109 D110 P110 AC110 D119 P119 AC119 D120 P120 AC120 D121 P121 AC121 D122 P122 AC122 D123 P123 AC123 D136 P136 AC136 AC143 AC144 AC145 AC146 AC147 AC148 D149 AC149 AC150 AC151 AC152 AC153 AC154 D155 AC155 D1:D15 D35:D36 D41:D43 D46:D47 D50:D56 D59:D60 D62:D64 D65:D66 D67:D68 D71:D72 D75:D78 D79:D80 D82:D83 D84:D86 D87:D89 D90:D94 D95:D96 D97:D98 D99:D100 D103:D104 D105:D106 D111:D118 D124:D125 D126:D127 D128:D133 D134:D135 D137:D142 D143:D148 D150:D154 D156:D1048576 E1:E2 P1:P15 P35:P36 P41:P43 P46:P47 P50:P56 P59:P60 P62:P64 P65:P66 P67:P68 P71:P72 P75:P78 P79:P80 P82:P83 P84:P86 P87:P89 P90:P94 P95:P96 P97:P98 P99:P100 P103:P104 P105:P106 P111:P118 P124:P125 P126:P127 P128:P133 P134:P135 P137:P140 AC1:AC7 AC9:AC15 AC35:AC36 AC41:AC43 AC46:AC47 AC50:AC56 AC59:AC60 AC62:AC64 AC67:AC68 AC71:AC72 AC75:AC78 AC79:AC80 AC82:AC83 AC84:AC86 AC87:AC89 AC90:AC94 AC95:AC96 AC97:AC98 AC99:AC100 AC103:AC104 AC105:AC106 AC111:AC118 AC124:AC125 AC126:AC127 AC128:AC133 AC134:AC135 AC137:AC142 AC156:AC1048576 AG1:AG2 L1:O2 Q1:AB2 AI1:AK2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O37 O38 O39 O40 O44 O45 O48 O49 O57 O61 O69 O70 O73 O74 O81 O101 O102 O107 O108 O109 O110 O119 O120 O121 O122 O123 O136 O142 O149 O152 O153 O154 O155 O3:O15 O35:O36 O41:O43 O46:O47 O50:O56 O59:O60 O62:O64 O65:O66 O67:O68 O71:O72 O75:O78 O79:O80 O82:O83 O84:O86 O87:O89 O90:O94 O95:O96 O97:O98 O99:O100 O103:O104 O105:O106 O111:O118 O124:O125 O126:O127 O128:O133 O134:O135 O137:O140">
+      <formula1>"刀,剑,枪,弓,扇"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16 AG16 A17 AG17 A18 AG18 A19 AG19 A20 AG20 A21 AG21 A22 AG22 A23 AG23 A24 AG24 A25 AG25 A26 AG26 A27 AG27 A28 AG28 A29 AG29 A30 AG30 A31 AG31 A32 AG32 A33 AG33 A34 AG34 A37 AG37 A38 AG38 A39 AG39 A40 AG40 A44 AG44 A45 AG45 A48 AG48 A49 AG49 A61 AG61 A65 AG65 A66 AG66 A69 AG69 A70 AG70 A73 AG73 A74 AG74 A75 A76 A77 A78 A79 A80 A81 AG81 A90 A101 AG101 A102 AG102 AG103 AG104 A107 AG107 A108 AG108 A109 AG109 A110 AG110 A119 AG119 A120 AG120 A121 AG121 A122 AG122 A123 AG123 A132 A133 A136 AG136 A143 AG143 A144 AG144 A145 AG145 A146 AG146 A147 AG147 A148 AG148 AG149 AG150 A151 AG151 A152 AG152 A153 AG153 A154 AG154 A155 AG155 A3:A15 A35:A36 A41:A43 A46:A47 A50:A56 A57:A60 A62:A64 A67:A68 A71:A72 A82:A83 A84:A86 A87:A89 A91:A94 A95:A96 A97:A98 A99:A100 A103:A104 A105:A106 A111:A118 A124:A125 A126:A127 A128:A131 A134:A135 A137:A142 A149:A150 A156:A1048576 AG3:AG15 AG35:AG36 AG41:AG43 AG46:AG47 AG50:AG56 AG57:AG60 AG62:AG64 AG67:AG68 AG71:AG72 AG75:AG78 AG79:AG80 AG82:AG83 AG84:AG86 AG87:AG89 AG90:AG94 AG95:AG96 AG97:AG98 AG99:AG100 AG105:AG106 AG111:AG118 AG124:AG125 AG126:AG127 AG128:AG133 AG134:AG135 AG137:AG142">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16 M17 M18 M19 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M37 M38 M39 M40 M44 M45 M48 M49 M57 M61 M69 M70 M73 M74 M81 M101 M102 M107 M108 M109 M110 M119 M120 M121 M122 M123 M136 M143 M144 M145 M146 M147 M149 M150 M151 M152 M153 M154 M155 M3:M15 M35:M36 M41:M43 M46:M47 M50:M56 M59:M60 M62:M64 M65:M66 M67:M68 M71:M72 M75:M78 M79:M80 M82:M83 M84:M86 M87:M89 M90:M94 M95:M96 M97:M98 M99:M100 M103:M104 M105:M106 M111:M118 M124:M125 M126:M127 M128:M133 M134:M135 M137:M142">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E37 E38 E39 E40 E44 E45 E48 E49 E57 E61 E69 E70 E73 E74 E81 E101 E102 E107 E108 E109 E110 E119 E120 E121 E122 E123 E136 E145 E146 E147 E149 E151 E152 E153 E3:E15 E35:E36 E41:E43 E46:E47 E50:E56 E59:E60 E62:E64 E65:E66 E67:E68 E71:E72 E75:E78 E79:E80 E82:E83 E84:E86 E87:E89 E90:E94 E95:E96 E97:E98 E99:E100 E103:E104 E105:E106 E111:E118 E124:E125 E126:E127 E128:E133 E134:E135 E137:E142">
       <formula1>"魏,蜀,吴,群"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D16 P16 AC16 D17 P17 AC17 D18 P18 AC18 D19 P19 AC19 D20 P20 AC20 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D30 P30 AC30 D31 P31 AC31 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D37 P37 AC37 D38 P38 AC38 D39 P39 AC39 D40 P40 AC40 D44 P44 AC44 D45 P45 AC45 D48 P48 AC48 D49 P49 AC49 D57 P57 AC57 D61 P61 AC61 AC65 AC66 D69 P69 AC69 D70 P70 AC70 D73 P73 AC73 D74 P74 AC74 D81 P81 AC81 D101 P101 AC101 D102 P102 AC102 D107 P107 AC107 D108 P108 AC108 D109 P109 AC109 D110 P110 AC110 D119 P119 AC119 D120 P120 AC120 D121 P121 AC121 D122 P122 AC122 D123 P123 AC123 D136 P136 AC136 AC143 AC144 AC145 AC146 AC147 AC148 D149 AC149 AC150 AC151 AC152 AC153 AC154 D155 AC155 D1:D15 D35:D36 D41:D43 D46:D47 D50:D56 D59:D60 D62:D64 D65:D66 D67:D68 D71:D72 D75:D78 D79:D80 D82:D83 D84:D86 D87:D89 D90:D94 D95:D96 D97:D98 D99:D100 D103:D104 D105:D106 D111:D118 D124:D125 D126:D127 D128:D133 D134:D135 D137:D142 D143:D148 D150:D154 D156:D1048576 E1:E2 P1:P15 P35:P36 P41:P43 P46:P47 P50:P56 P59:P60 P62:P64 P65:P66 P67:P68 P71:P72 P75:P78 P79:P80 P82:P83 P84:P86 P87:P89 P90:P94 P95:P96 P97:P98 P99:P100 P103:P104 P105:P106 P111:P118 P124:P125 P126:P127 P128:P133 P134:P135 P137:P140 AC1:AC7 AC9:AC15 AC35:AC36 AC41:AC43 AC46:AC47 AC50:AC56 AC59:AC60 AC62:AC64 AC67:AC68 AC71:AC72 AC75:AC78 AC79:AC80 AC82:AC83 AC84:AC86 AC87:AC89 AC90:AC94 AC95:AC96 AC97:AC98 AC99:AC100 AC103:AC104 AC105:AC106 AC111:AC118 AC124:AC125 AC126:AC127 AC128:AC133 AC134:AC135 AC137:AC142 AC156:AC1048576 AG1:AG2 L1:O2 Q1:AB2 AI1:AK2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16 AG16 A17 AG17 A18 AG18 A19 AG19 A20 AG20 A21 AG21 A22 AG22 A23 AG23 A24 AG24 A25 AG25 A26 AG26 A27 AG27 A28 AG28 A29 AG29 A30 AG30 A31 AG31 A32 AG32 A33 AG33 A34 AG34 A37 AG37 A38 AG38 A39 AG39 A40 AG40 A44 AG44 A45 AG45 A48 AG48 A49 AG49 A61 AG61 A65 AG65 A66 AG66 A69 AG69 A70 AG70 A73 AG73 A74 AG74 A75 A76 A77 A78 A79 A80 A81 AG81 A90 A101 AG101 A102 AG102 AG103 AG104 A107 AG107 A108 AG108 A109 AG109 A110 AG110 A119 AG119 A120 AG120 A121 AG121 A122 AG122 A123 AG123 A132 A133 A136 AG136 A143 AG143 A144 AG144 A145 AG145 A146 AG146 A147 AG147 A148 AG148 AG149 AG150 A151 AG151 A152 AG152 A153 AG153 A154 AG154 A155 AG155 A3:A15 A35:A36 A41:A43 A46:A47 A50:A56 A57:A60 A62:A64 A67:A68 A71:A72 A82:A83 A84:A86 A87:A89 A91:A94 A95:A96 A97:A98 A99:A100 A103:A104 A105:A106 A111:A118 A124:A125 A126:A127 A128:A131 A134:A135 A137:A142 A149:A150 A156:A1048576 AG3:AG15 AG35:AG36 AG41:AG43 AG46:AG47 AG50:AG56 AG57:AG60 AG62:AG64 AG67:AG68 AG71:AG72 AG75:AG78 AG79:AG80 AG82:AG83 AG84:AG86 AG87:AG89 AG90:AG94 AG95:AG96 AG97:AG98 AG99:AG100 AG105:AG106 AG111:AG118 AG124:AG125 AG126:AG127 AG128:AG133 AG134:AG135 AG137:AG142">
-      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:AB16 S17:AB17 S18:AB18 S19:T19 U19:V19 W19:AB19 S20:T20 U20:V20 W20:X20 Y20:Z20 AA20:AB20 S21:T21 U21:V21 W21 X21 Y21:Z21 AA21:AB21 S22:AB22 S23:AB23 S24:T24 U24:V24 W24:X24 Y24:AB24 S25:T25 U25:V25 W25:X25 Y25:AB25 S26:AB26 S27:AB27 S28:AB28 S29:AB29 S30:T30 U30:V30 W30:X30 Y30:Z30 AA30:AB30 S31:T31 U31:X31 Y31:Z31 AA31:AB31 S32:AB32 S33:AB33 S34:AB34 S37:AB37 S38:AB38 S39:AB39 S40:AB40 S44:AB44 S45:AB45 S48:AB48 S49:AB49 S61:AB61 S69:AB69 S70:AB70 S73:AB73 S74:AB74 S81:AB81 S101:AB101 S102:AB102 S107:AB107 S108:AB108 S109:AB109 S110:AB110 S119:AB119 S120:AB120 S121:AB121 S122:AB122 S123:AB123 S136:AB136 S143:T143 U143:V143 W143:X143 Y143:Z143 AA143:AB143 S144:T144 U144:V144 W144:X144 Y144:Z144 AA144:AB144 S145:T145 U145:V145 W145:X145 Y145:Z145 AA145:AB145 S146:T146 U146:V146 W146:X146 Y146:Z146 AA146:AB146 S147:T147 U147:V147 W147:X147 Y147:Z147 AA147 AB147 S148:T148 U148:V148 W148 X148 Y148:Z148 AA148:AB148 S149:T149 U149:V149 W149:X149 Y149:Z149 AA149:AB149 S150:T150 U150:V150 W150 X150 Y150:Z150 AA150:AB150 S151:T151 U151:V151 W151 X151 Y151:Z151 AA151:AB151 S152:T152 U152:V152 W152 X152 Y152:Z152 AA152:AB152 S153:T153 U153:V153 W153 X153 Y153:Z153 AA153:AB153 S154:T154 U154:V154 W154 X154 Y154:Z154 AA154:AB154 S155:T155 U155:V155 W155 X155 Y155:Z155 AA155:AB155 S46:AB47 S82:AB83 S124:AB125 S126:AB127 S134:AB135 S35:AB36 S59:AB60 S65:AB66 S67:AB68 S71:AB72 S79:AB80 S95:AB96 S97:AB98 S99:AB100 S103:AB104 S105:AB106 S3:AB15 S41:AB43 S62:AB64 S50:AB56 S75:AB78 S84:AB86 S87:AB89 S90:AB94 S111:AB118 S128:AB133 S137:AB142">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N37 N38 N39 N40 N44 N45 N48 N49 N57 N61 N69 N70 N73 N74 N81 N101 N102 N107 N108 N109 N110 N119 N120 N121 N122 N123 N136 N142 N143 N144 O144 N145 N146 N148 N149 N150 N151 N152 N153 N154 N155 N3:N15 N35:N36 N41:N43 N46:N47 N50:N56 N59:N60 N62:N64 N65:N66 N67:N68 N71:N72 N75:N78 N79:N80 N82:N83 N84:N86 N87:N89 N90:N94 N95:N96 N97:N98 N99:N100 N103:N104 N105:N106 N111:N118 N124:N125 N126:N127 N128:N133 N134:N135 N137:N140">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L37 L38 L39 L40 L44 L45 L48 L49 L57 L61 L69 L70 L73 L74 L81 L101 L102 L107 L108 L109 L110 L119 L120 L121 L122 L123 L136 L142 L146 L147 L149 L150 L151 L152 L153 L3:L15 L35:L36 L41:L43 L46:L47 L50:L56 L59:L60 L62:L64 L65:L66 L67:L68 L71:L72 L75:L78 L79:L80 L82:L83 L84:L86 L87:L89 L90:L94 L95:L96 L97:L98 L99:L100 L103:L104 L105:L106 L111:L118 L124:L125 L126:L127 L128:L133 L134:L135 L137:L140">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16 M17 M18 M19 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M37 M38 M39 M40 M44 M45 M48 M49 M57 M61 M69 M70 M73 M74 M81 M101 M102 M107 M108 M109 M110 M119 M120 M121 M122 M123 M136 M143 M144 M145 M146 M147 M149 M150 M151 M152 M153 M154 M155 M3:M15 M35:M36 M41:M43 M46:M47 M50:M56 M59:M60 M62:M64 M65:M66 M67:M68 M71:M72 M75:M78 M79:M80 M82:M83 M84:M86 M87:M89 M90:M94 M95:M96 M97:M98 M99:M100 M103:M104 M105:M106 M111:M118 M124:M125 M126:M127 M128:M133 M134:M135 M137:M142">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O37 O38 O39 O40 O44 O45 O48 O49 O57 O61 O69 O70 O73 O74 O81 O101 O102 O107 O108 O109 O110 O119 O120 O121 O122 O123 O136 O142 O149 O152 O153 O154 O155 O3:O15 O35:O36 O41:O43 O46:O47 O50:O56 O59:O60 O62:O64 O65:O66 O67:O68 O71:O72 O75:O78 O79:O80 O82:O83 O84:O86 O87:O89 O90:O94 O95:O96 O97:O98 O99:O100 O103:O104 O105:O106 O111:O118 O124:O125 O126:O127 O128:O133 O134:O135 O137:O140">
-      <formula1>"刀,剑,枪,弓,扇"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N37 N38 N39 N40 N44 N45 N48 N49 N57 N61 N69 N70 N73 N74 N81 N101 N102 N107 N108 N109 N110 N119 N120 N121 N122 N123 N136 N142 N143 N144 O144 N145 N146 N148 N149 N150 N151 N152 N153 N154 N155 N3:N15 N35:N36 N41:N43 N46:N47 N50:N56 N59:N60 N62:N64 N65:N66 N67:N68 N71:N72 N75:N78 N79:N80 N82:N83 N84:N86 N87:N89 N90:N94 N95:N96 N97:N98 N99:N100 N103:N104 N105:N106 N111:N118 N124:N125 N126:N127 N128:N133 N134:N135 N137:N140">
+      <formula1>"枪,弓,骑"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q16:R16 Q17:R17 Q18:R18 Q19:R19 Q20:R20 Q21:R21 Q22:R22 Q23:R23 Q24:R24 Q25:R25 Q26:R26 Q27:R27 Q28:R28 Q29:R29 Q30:R30 Q31:R31 Q32:R32 Q33:R33 Q34:R34 Q37:R37 Q38:R38 Q39:R39 Q40:R40 Q44:R44 Q45:R45 Q48:R48 Q49:R49 Q57:R57 Q61:R61 Q69:R69 Q70:R70 Q73:R73 Q74:R74 Q81:R81 Q101:R101 Q102:R102 Q107:R107 Q108:R108 Q109:R109 Q110:R110 Q119:R119 Q120:R120 Q121:R121 Q122:R122 Q123:R123 Q136:R136 Q143:R143 Q144:R144 Q145:R145 Q146:R146 Q147:R147 Q148:R148 Q149:R149 Q150:R150 Q151:R151 Q152:R152 Q153:R153 Q154:R154 Q155:R155 Q46:R47 Q82:R83 Q124:R125 Q126:R127 Q134:R135 Q35:R36 Q59:R60 Q65:R66 Q67:R68 Q71:R72 Q79:R80 Q95:R96 Q97:R98 Q99:R100 Q103:R104 Q105:R106 Q41:R43 Q62:R64 Q3:R15 Q50:R56 Q75:R78 Q84:R86 Q87:R89 Q90:R94 Q111:R118 Q128:R133 Q137:R142">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI16:AK16 AI17:AK17 AI18:AK18 AI19:AK19 AI20:AK20 AI21:AK21 AI22:AK22 AI23:AK23 AI24:AK24 AI25:AK25 AI26:AK26 AI27:AK27 AI28:AK28 AI29:AK29 AI30:AK30 AI31:AK31 AI32:AK32 AI33:AJ33 AK33 AI34:AJ34 AK34 AI37:AJ37 AK37 AI38:AJ38 AK38 AI39:AJ39 AK39 AI40:AJ40 AK40 AI44:AJ44 AK44 AI45:AJ45 AK45 AI48:AJ48 AK48 AI49:AJ49 AK49 AI61:AJ61 AK61 AI69:AJ69 AK69 AI70:AJ70 AK70 AI73:AJ73 AK73 AI74:AJ74 AK74 AI81:AJ81 AK81 AI101:AJ101 AK101 AI102:AJ102 AK102 AI107:AJ107 AK107 AI108:AJ108 AK108 AI109:AJ109 AK109 AI110:AJ110 AK110 AI119:AJ119 AK119 AI120:AJ120 AK120 AI121:AJ121 AK121 AI122:AJ122 AK122 AI123:AJ123 AK123 AI136:AJ136 AK136 AI143:AJ143 AI144:AJ144 AK35:AK36 AK41:AK43 AK46:AK47 AK50:AK56 AK57:AK60 AK62:AK64 AK65:AK66 AK67:AK68 AK71:AK72 AK75:AK78 AK79:AK80 AK82:AK83 AK84:AK86 AK87:AK89 AK90:AK94 AK95:AK96 AK97:AK98 AK99:AK100 AK103:AK104 AK105:AK106 AK111:AK118 AK124:AK125 AK126:AK127 AK128:AK133 AK134:AK135 AK137:AK140 AI46:AJ47 AI82:AJ83 AI124:AJ125 AI126:AJ127 AI134:AJ135 AI35:AJ36 AI65:AJ66 AI67:AJ68 AI71:AJ72 AI79:AJ80 AI95:AJ96 AI97:AJ98 AI99:AJ100 AI103:AJ104 AI105:AJ106 AI41:AJ43 AI62:AJ64 AI3:AK15 AI50:AJ56 AI75:AJ78 AI84:AJ86 AI87:AJ89 AI90:AJ94 AI111:AJ118 AI128:AJ133 AI137:AJ142 AI57:AJ60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI16:AK16 AI17:AK17 AI18:AK18 AI19:AK19 AI20:AK20 AI21:AK21 AI22:AK22 AI23:AK23 AI24:AK24 AI25:AK25 AI26:AK26 AI27:AK27 AI28:AK28 AI29:AK29 AI30:AK30 AI31:AK31 AI32:AK32 AI33:AJ33 AK33 AI34:AJ34 AK34 AI37:AJ37 AK37 AI38:AJ38 AK38 AI39:AJ39 AK39 AI40:AJ40 AK40 AI44:AJ44 AK44 AI45:AJ45 AK45 AI48:AJ48 AK48 AI49:AJ49 AK49 AI61:AJ61 AK61 AI69:AJ69 AK69 AI70:AJ70 AK70 AI73:AJ73 AK73 AI74:AJ74 AK74 AI81:AJ81 AK81 AI101:AJ101 AK101 AI102:AJ102 AK102 AI107:AJ107 AK107 AI108:AJ108 AK108 AI109:AJ109 AK109 AI110:AJ110 AK110 AI119:AJ119 AK119 AI120:AJ120 AK120 AI121:AJ121 AK121 AI122:AJ122 AK122 AI123:AJ123 AK123 AI136:AJ136 AK136 AI143:AJ143 AI144:AJ144 AK35:AK36 AK41:AK43 AK46:AK47 AK50:AK56 AK57:AK60 AK62:AK64 AK65:AK66 AK67:AK68 AK71:AK72 AK75:AK78 AK79:AK80 AK82:AK83 AK84:AK86 AK87:AK89 AK90:AK94 AK95:AK96 AK97:AK98 AK99:AK100 AK103:AK104 AK105:AK106 AK111:AK118 AK124:AK125 AK126:AK127 AK128:AK133 AK134:AK135 AK137:AK140 AI46:AJ47 AI82:AJ83 AI124:AJ125 AI126:AJ127 AI134:AJ135 AI35:AJ36 AI65:AJ66 AI67:AJ68 AI71:AJ72 AI79:AJ80 AI95:AJ96 AI97:AJ98 AI99:AJ100 AI103:AJ104 AI105:AJ106 AI41:AJ43 AI62:AJ64 AI50:AJ56 AI75:AJ78 AI84:AJ86 AI87:AJ89 AI90:AJ94 AI111:AJ118 AI128:AJ133 AI137:AJ142 AI3:AK15 AI57:AJ60">
       <formula1>"天机之钥,天相之圭,太阴之精,太阳之焰,贪狼之爪,廉贞之锋,七杀之气,破军之血"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH$1:AH$1048576">
